--- a/molgenis-platform-integration-tests/src/test/resources/xls/it_emx_onetomany.xlsx
+++ b/molgenis-platform-integration-tests/src/test/resources/xls/it_emx_onetomany.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="40" windowWidth="22040" windowHeight="11320"/>
+    <workbookView xWindow="3880" yWindow="780" windowWidth="29960" windowHeight="17320" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="4" r:id="rId1"/>
     <sheet name="entities" sheetId="5" r:id="rId2"/>
     <sheet name="attributes" sheetId="1" r:id="rId3"/>
-    <sheet name="onetomany_author" sheetId="6" r:id="rId4"/>
-    <sheet name="onetomany_book" sheetId="7" r:id="rId5"/>
-    <sheet name="onetomany_node" sheetId="8" r:id="rId6"/>
+    <sheet name="it_emx_onetomany_author" sheetId="6" r:id="rId4"/>
+    <sheet name="it_emx_onetomany_book" sheetId="7" r:id="rId5"/>
+    <sheet name="it_emx_onetomany_node" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -203,16 +203,22 @@
     <t>Test: Node</t>
   </si>
   <si>
-    <t>onetomany</t>
-  </si>
-  <si>
-    <t>onetomany_book</t>
-  </si>
-  <si>
-    <t>onetomany_author</t>
-  </si>
-  <si>
-    <t>onetomany_node</t>
+    <t>it_emx_onetomany</t>
+  </si>
+  <si>
+    <t>it_emx</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>it_emx_onetomany_book</t>
+  </si>
+  <si>
+    <t>it_emx_onetomany_author</t>
+  </si>
+  <si>
+    <t>it_emx_onetomany_node</t>
   </si>
 </sst>
 </file>
@@ -268,8 +274,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -281,11 +289,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -585,15 +595,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -614,6 +624,22 @@
       </c>
       <c r="B2" t="s">
         <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -639,7 +665,7 @@
   <cols>
     <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="77.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -711,17 +737,17 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
@@ -784,7 +810,7 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -813,7 +839,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -833,7 +859,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -842,7 +868,7 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -850,7 +876,7 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -879,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -899,7 +925,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -908,7 +934,7 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
@@ -922,7 +948,7 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -951,7 +977,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -971,7 +997,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
@@ -980,7 +1006,7 @@
         <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -988,7 +1014,7 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -997,7 +1023,7 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
         <v>23</v>
@@ -1147,7 +1173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
